--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
@@ -1015,7 +1015,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>49</v>
@@ -1636,7 +1636,7 @@
         <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>104</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -116,7 +116,7 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati trascrizione</t>
+    <t>Dati della trascrizione</t>
   </si>
   <si>
     <t>Data Unione civile</t>
@@ -128,6 +128,51 @@
     <t>dataEvento</t>
   </si>
   <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.luogoCelebrazione</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Tipo richiesta</t>
   </si>
   <si>
@@ -173,6 +218,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -221,19 +272,16 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -387,9 +435,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
   </si>
   <si>
     <t>Richiedente</t>
@@ -463,13 +508,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.61328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
@@ -923,7 +968,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>39</v>
@@ -946,7 +991,7 @@
         <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>39</v>
@@ -963,19 +1008,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -986,19 +1031,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1009,19 +1054,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1032,19 +1077,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1055,19 +1100,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1078,19 +1123,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1101,19 +1146,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1124,7 +1169,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>63</v>
@@ -1133,10 +1178,10 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1147,19 +1192,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1170,19 +1215,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1193,19 +1238,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1216,19 +1261,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1239,19 +1284,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1262,19 +1307,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1285,19 +1330,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1308,19 +1353,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1331,19 +1376,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1354,19 +1399,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1377,16 +1422,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>86</v>
@@ -1400,16 +1445,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>88</v>
@@ -1423,7 +1468,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>89</v>
@@ -1432,7 +1477,7 @@
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>90</v>
@@ -1446,7 +1491,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>91</v>
@@ -1455,7 +1500,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>92</v>
@@ -1469,7 +1514,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>93</v>
@@ -1478,7 +1523,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>94</v>
@@ -1492,7 +1537,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>95</v>
@@ -1501,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>96</v>
@@ -1515,7 +1560,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>97</v>
@@ -1524,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>98</v>
@@ -1538,7 +1583,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>99</v>
@@ -1547,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>100</v>
@@ -1561,7 +1606,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>101</v>
@@ -1570,7 +1615,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>102</v>
@@ -1584,19 +1629,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1607,19 +1652,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1630,19 +1675,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1653,19 +1698,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1676,19 +1721,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1744,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1767,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1790,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1813,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1836,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1859,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1882,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1905,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1928,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1951,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1974,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1997,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1975,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2043,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2066,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2089,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2112,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2135,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2158,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2181,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2204,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2227,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2250,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2273,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2296,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2319,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2342,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2365,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2388,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2411,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2434,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2457,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2435,22 +2480,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>27</v>
@@ -2458,19 +2503,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2526,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2504,22 +2549,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>27</v>
@@ -2527,22 +2572,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>27</v>
@@ -2550,19 +2595,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2618,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2641,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2619,22 +2664,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>27</v>
@@ -2642,22 +2687,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>27</v>
@@ -2665,22 +2710,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>27</v>
@@ -2688,22 +2733,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>27</v>
@@ -2711,19 +2756,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2734,22 +2779,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>27</v>
@@ -2757,22 +2802,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>27</v>
@@ -2780,19 +2825,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2848,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2826,22 +2871,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>27</v>
@@ -2849,22 +2894,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>27</v>
@@ -2872,22 +2917,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>27</v>
@@ -2895,19 +2940,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>15</v>
@@ -2918,22 +2963,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>27</v>
@@ -2941,19 +2986,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2964,24 +3009,254 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E109" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="G113" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -945,7 +951,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
@@ -1497,7 +1503,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>64</v>
@@ -1520,7 +1526,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>64</v>
@@ -1658,7 +1664,7 @@
         <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>64</v>
@@ -1727,7 +1733,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>64</v>
@@ -1813,19 +1819,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1842,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1888,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1911,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1934,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1957,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1980,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2003,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2049,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2072,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2095,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2118,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2141,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2158,19 +2164,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2187,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2210,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2227,19 +2233,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2279,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2302,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2325,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2342,19 +2348,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2365,19 +2371,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2394,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2417,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2440,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2460,16 +2466,16 @@
         <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2483,16 +2489,16 @@
         <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2509,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2555,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2578,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2595,19 +2601,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2618,19 +2624,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2647,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2664,19 +2670,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2687,22 +2693,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>27</v>
@@ -2710,19 +2716,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2733,22 +2739,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>27</v>
@@ -2756,19 +2762,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2779,22 +2785,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>27</v>
@@ -2802,22 +2808,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>27</v>
@@ -2825,22 +2831,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>27</v>
@@ -2848,22 +2854,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>27</v>
@@ -2871,19 +2877,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2894,22 +2900,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>27</v>
@@ -2917,19 +2923,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2940,19 +2946,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>15</v>
@@ -2963,22 +2969,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>27</v>
@@ -2986,22 +2992,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>27</v>
@@ -3009,22 +3015,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>27</v>
@@ -3032,19 +3038,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3055,19 +3061,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3078,22 +3084,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>27</v>
@@ -3101,22 +3107,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>27</v>
@@ -3124,22 +3130,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>27</v>
@@ -3147,22 +3153,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>27</v>
@@ -3170,19 +3176,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>15</v>
@@ -3193,19 +3199,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3216,22 +3222,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>27</v>
@@ -3239,24 +3245,93 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G119" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1687,7 +1693,7 @@
         <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>64</v>
@@ -1756,7 +1762,7 @@
         <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>64</v>
@@ -1842,19 +1848,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1865,19 +1871,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1894,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1917,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1940,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2009,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2032,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2049,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2078,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2101,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2124,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2147,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2170,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2193,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2216,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2239,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2262,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2308,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2331,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2354,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2377,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2400,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2423,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2469,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2486,19 +2492,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2512,16 +2518,16 @@
         <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2535,16 +2541,16 @@
         <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2561,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2584,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2607,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2630,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2676,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2739,22 +2745,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>27</v>
@@ -2762,19 +2768,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2785,22 +2791,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>27</v>
@@ -2808,19 +2814,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2831,22 +2837,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>27</v>
@@ -2854,22 +2860,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>27</v>
@@ -2877,22 +2883,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>27</v>
@@ -2900,22 +2906,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>27</v>
@@ -2923,19 +2929,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2946,22 +2952,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>27</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>15</v>
@@ -3015,22 +3021,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>27</v>
@@ -3038,22 +3044,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>27</v>
@@ -3061,22 +3067,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>27</v>
@@ -3084,22 +3090,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>27</v>
@@ -3107,19 +3113,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3130,19 +3136,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>15</v>
@@ -3153,22 +3159,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>27</v>
@@ -3176,22 +3182,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>27</v>
@@ -3199,22 +3205,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>27</v>
@@ -3222,22 +3228,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>27</v>
@@ -3245,19 +3251,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>15</v>
@@ -3268,19 +3274,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3291,22 +3297,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>27</v>
@@ -3314,24 +3320,93 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G122" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -387,6 +387,87 @@
   </si>
   <si>
     <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Atto nascita Coniuge1</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge1</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto nascita Coniuge2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge2</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -520,17 +601,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.62890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.61328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2567,7 +2648,7 @@
         <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>127</v>
@@ -2579,7 +2660,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90">
@@ -2587,22 +2668,22 @@
         <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91">
@@ -2610,22 +2691,22 @@
         <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92">
@@ -2633,22 +2714,22 @@
         <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93">
@@ -2656,22 +2737,22 @@
         <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94">
@@ -2679,7 +2760,7 @@
         <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2688,13 +2769,13 @@
         <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95">
@@ -2717,7 +2798,7 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96">
@@ -2734,13 +2815,13 @@
         <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97">
@@ -2748,7 +2829,7 @@
         <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2757,13 +2838,13 @@
         <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98">
@@ -2771,7 +2852,7 @@
         <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2780,18 +2861,18 @@
         <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>146</v>
@@ -2800,332 +2881,332 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3136,22 +3217,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>27</v>
@@ -3159,22 +3240,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>27</v>
@@ -3182,19 +3263,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3205,22 +3286,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>27</v>
@@ -3228,19 +3309,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3251,22 +3332,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>27</v>
@@ -3274,19 +3355,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3297,22 +3378,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>27</v>
@@ -3320,22 +3401,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>27</v>
@@ -3343,22 +3424,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>27</v>
@@ -3366,19 +3447,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3389,24 +3470,576 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="E125" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G149" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -601,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1981,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2004,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2027,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2050,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2073,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2096,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2119,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2142,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2165,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2188,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2211,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2234,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2257,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2280,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2303,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2326,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2349,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2372,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2395,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2418,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2441,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2464,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2487,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2510,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2533,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2556,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2579,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2602,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2625,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2645,22 +2651,22 @@
         <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
@@ -2668,528 +2674,528 @@
         <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113">
@@ -3197,22 +3203,22 @@
         <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114">
@@ -3220,39 +3226,39 @@
         <v>152</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3263,19 +3269,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3286,19 +3292,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3309,19 +3315,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3332,19 +3338,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3355,19 +3361,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3378,19 +3384,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3401,19 +3407,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3424,22 +3430,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>27</v>
@@ -3447,19 +3453,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3470,22 +3476,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>27</v>
@@ -3493,19 +3499,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3516,22 +3522,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>27</v>
@@ -3539,22 +3545,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>27</v>
@@ -3562,22 +3568,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>27</v>
@@ -3585,22 +3591,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>27</v>
@@ -3608,19 +3614,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3631,22 +3637,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>27</v>
@@ -3654,19 +3660,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3677,19 +3683,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>15</v>
@@ -3700,22 +3706,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>27</v>
@@ -3723,22 +3729,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>27</v>
@@ -3746,22 +3752,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>27</v>
@@ -3769,22 +3775,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>27</v>
@@ -3792,22 +3798,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>27</v>
@@ -3815,22 +3821,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>27</v>
@@ -3838,19 +3844,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>15</v>
@@ -3861,19 +3867,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3884,19 +3890,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>15</v>
@@ -3907,19 +3913,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3930,19 +3936,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>15</v>
@@ -3953,22 +3959,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>27</v>
@@ -3976,22 +3982,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>27</v>
@@ -3999,22 +4005,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>27</v>
@@ -4022,24 +4028,70 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="B150" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="G151" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -381,12 +381,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -607,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1958,19 +1952,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1975,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2004,19 +1998,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2021,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2044,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2067,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2090,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2113,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2136,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2159,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2182,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2205,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2228,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2251,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2274,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2297,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2320,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2343,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2366,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2389,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2412,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2435,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2458,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2481,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2504,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2527,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2550,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2573,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2596,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2619,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2651,22 +2645,22 @@
         <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90">
@@ -2674,528 +2668,528 @@
         <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113">
@@ -3203,22 +3197,22 @@
         <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
@@ -3226,39 +3220,39 @@
         <v>152</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3269,19 +3263,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3292,19 +3286,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3315,19 +3309,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3338,19 +3332,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3361,19 +3355,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3384,19 +3378,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3407,19 +3401,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3430,22 +3424,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>27</v>
@@ -3453,19 +3447,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3476,22 +3470,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>27</v>
@@ -3499,19 +3493,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3522,22 +3516,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>27</v>
@@ -3545,22 +3539,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>27</v>
@@ -3568,22 +3562,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>27</v>
@@ -3591,22 +3585,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>27</v>
@@ -3614,19 +3608,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3637,22 +3631,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>27</v>
@@ -3660,19 +3654,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3683,19 +3677,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>15</v>
@@ -3706,22 +3700,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>27</v>
@@ -3729,22 +3723,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>27</v>
@@ -3752,22 +3746,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>27</v>
@@ -3775,22 +3769,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>27</v>
@@ -3798,22 +3792,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>27</v>
@@ -3821,22 +3815,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>27</v>
@@ -3844,19 +3838,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>15</v>
@@ -3867,19 +3861,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3890,19 +3884,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>15</v>
@@ -3913,19 +3907,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3936,19 +3930,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>15</v>
@@ -3959,22 +3953,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>27</v>
@@ -3982,22 +3976,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>27</v>
@@ -4005,22 +3999,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>27</v>
@@ -4028,70 +4022,24 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
@@ -47,13 +47,13 @@
     <t/>
   </si>
   <si>
-    <t>Atto di costituzione di unione civile</t>
+    <t>Atto di costituzione e traduzione</t>
   </si>
   <si>
     <t>SI</t>
   </si>
   <si>
-    <t>Traduzione dell'Atto di costituzione di unione civile</t>
+    <t>Traduzione dell'atto di costituzione di unione civile</t>
   </si>
   <si>
     <t>Formula</t>
@@ -614,7 +614,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.62890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.61328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.39453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -699,7 +699,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="183">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -607,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1366,7 +1378,7 @@
         <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>64</v>
@@ -1389,7 +1401,7 @@
         <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>64</v>
@@ -1435,7 +1447,7 @@
         <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>64</v>
@@ -1458,7 +1470,7 @@
         <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>64</v>
@@ -1524,7 +1536,7 @@
         <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1533,7 +1545,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1547,16 +1559,16 @@
         <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1570,10 +1582,10 @@
         <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>64</v>
@@ -1596,7 +1608,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>64</v>
@@ -1619,7 +1631,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>64</v>
@@ -1803,7 +1815,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>64</v>
@@ -1826,7 +1838,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>64</v>
@@ -1872,7 +1884,7 @@
         <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>64</v>
@@ -1895,7 +1907,7 @@
         <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>64</v>
@@ -1981,19 +1993,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2016,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2039,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2062,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2085,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2108,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2131,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2154,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2177,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2200,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2223,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2246,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2269,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2292,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2315,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2338,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2361,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2384,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2407,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2430,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2453,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2476,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2499,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2522,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2545,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2568,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2591,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2614,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2637,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2660,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2683,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2694,663 +2706,663 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3361,19 +3373,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3384,19 +3396,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3407,19 +3419,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3430,19 +3442,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3453,19 +3465,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3476,22 +3488,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>27</v>
@@ -3499,19 +3511,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3522,19 +3534,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3545,19 +3557,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3568,19 +3580,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>15</v>
@@ -3591,22 +3603,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>27</v>
@@ -3614,19 +3626,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3637,19 +3649,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3660,22 +3672,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>27</v>
@@ -3683,22 +3695,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>27</v>
@@ -3706,22 +3718,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>27</v>
@@ -3729,19 +3741,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>15</v>
@@ -3752,22 +3764,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>27</v>
@@ -3775,19 +3787,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3798,19 +3810,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3821,19 +3833,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>15</v>
@@ -3844,22 +3856,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>27</v>
@@ -3867,22 +3879,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>27</v>
@@ -3890,19 +3902,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>15</v>
@@ -3913,19 +3925,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3936,22 +3948,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>27</v>
@@ -3959,22 +3971,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>27</v>
@@ -3982,19 +3994,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>15</v>
@@ -4005,22 +4017,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>27</v>
@@ -4028,22 +4040,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>27</v>
@@ -4051,19 +4063,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4074,24 +4086,162 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G151" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>27</v>
       </c>
     </row>
